--- a/data/coded_segments/kw_1_1.xlsx
+++ b/data/coded_segments/kw_1_1.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B70D3A5-DCD0-374A-955D-1D3C7856BD6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="490">
   <si>
     <t>Color</t>
   </si>
@@ -89,7 +85,7 @@
     <t>KW_set1</t>
   </si>
   <si>
-    <t>8/24/18 16:21:48</t>
+    <t>8/24/18 16:21:00</t>
   </si>
   <si>
     <t>Location:Country</t>
@@ -104,7 +100,7 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>8/24/18 16:22:03</t>
+    <t>8/24/18 16:22:00</t>
   </si>
   <si>
     <t>Location:Hospital name</t>
@@ -119,7 +115,7 @@
     <t>I.R.C.C.S. “S. Matteo”</t>
   </si>
   <si>
-    <t>8/24/18 16:24:39</t>
+    <t>8/24/18 16:24:00</t>
   </si>
   <si>
     <t>1: 2130</t>
@@ -131,9 +127,6 @@
     <t>“Casa Sollievo della Sofferenza” Hospital)</t>
   </si>
   <si>
-    <t>8/24/18 16:24:45</t>
-  </si>
-  <si>
     <t>1: 2235</t>
   </si>
   <si>
@@ -143,9 +136,6 @@
     <t>I.R.C.C.S. “S. Maugeri”</t>
   </si>
   <si>
-    <t>8/24/18 16:24:55</t>
-  </si>
-  <si>
     <t>Bacteria:Resistance Marker</t>
   </si>
   <si>
@@ -158,7 +148,7 @@
     <t>VIM-1 MBL</t>
   </si>
   <si>
-    <t>8/24/18 16:47:12</t>
+    <t>8/24/18 16:47:00</t>
   </si>
   <si>
     <t>1: 2007</t>
@@ -168,9 +158,6 @@
   </si>
   <si>
     <t>CTX-M-15</t>
-  </si>
-  <si>
-    <t>8/24/18 16:47:19</t>
   </si>
   <si>
     <t>Article/Study Aim</t>
@@ -187,7 +174,7 @@
 bilitation facility in Northern Italy (I.R.C.C.S. “S. Maugeri”).</t>
   </si>
   <si>
-    <t>8/24/18 16:48:28</t>
+    <t>8/24/18 16:48:00</t>
   </si>
   <si>
     <t>Notes</t>
@@ -207,7 +194,7 @@
 transferred from high-prevalence areas</t>
   </si>
   <si>
-    <t>8/24/18 16:50:08</t>
+    <t>8/24/18 16:50:00</t>
   </si>
   <si>
     <t>3: 3626</t>
@@ -222,7 +209,7 @@
 Italy</t>
   </si>
   <si>
-    <t>8/24/18 16:54:39</t>
+    <t>8/24/18 16:54:00</t>
   </si>
   <si>
     <t>Exclusion:Review article</t>
@@ -236,7 +223,7 @@
 from acute and rehabilitation hospitals in Italy</t>
   </si>
   <si>
-    <t>8/24/18 16:56:39</t>
+    <t>8/24/18 16:56:00</t>
   </si>
   <si>
     <t>172</t>
@@ -254,7 +241,7 @@
     <t>Linezolid</t>
   </si>
   <si>
-    <t>8/24/18 16:58:42</t>
+    <t>8/24/18 16:58:00</t>
   </si>
   <si>
     <t>2: 99</t>
@@ -266,9 +253,6 @@
     <t>Enterococcus faecium</t>
   </si>
   <si>
-    <t>8/24/18 16:58:50</t>
-  </si>
-  <si>
     <t>2: 133</t>
   </si>
   <si>
@@ -278,7 +262,7 @@
     <t>G2576T</t>
   </si>
   <si>
-    <t>8/24/18 16:59:25</t>
+    <t>8/24/18 16:59:00</t>
   </si>
   <si>
     <t>Event month</t>
@@ -293,9 +277,6 @@
     <t xml:space="preserve">April </t>
   </si>
   <si>
-    <t>8/24/18 16:59:49</t>
-  </si>
-  <si>
     <t>Event year</t>
   </si>
   <si>
@@ -308,9 +289,6 @@
     <t>2011</t>
   </si>
   <si>
-    <t>8/24/18 16:59:55</t>
-  </si>
-  <si>
     <t>Patient:Age</t>
   </si>
   <si>
@@ -323,7 +301,7 @@
     <t>66-year-old</t>
   </si>
   <si>
-    <t>8/24/18 17:00:05</t>
+    <t>8/24/18 17:00:00</t>
   </si>
   <si>
     <t>Patient:Comorbidities + risk factors</t>
@@ -338,9 +316,6 @@
     <t>paraplegic</t>
   </si>
   <si>
-    <t>8/24/18 17:00:18</t>
-  </si>
-  <si>
     <t>Patient:Sex</t>
   </si>
   <si>
@@ -353,9 +328,6 @@
     <t xml:space="preserve">woman </t>
   </si>
   <si>
-    <t>8/24/18 17:00:24</t>
-  </si>
-  <si>
     <t>2: 1490</t>
   </si>
   <si>
@@ -365,9 +337,6 @@
     <t>infected decubitis ulcer</t>
   </si>
   <si>
-    <t>8/24/18 17:00:34</t>
-  </si>
-  <si>
     <t>2: 1924</t>
   </si>
   <si>
@@ -377,7 +346,7 @@
     <t xml:space="preserve">vancomycin </t>
   </si>
   <si>
-    <t>8/24/18 17:01:35</t>
+    <t>8/24/18 17:01:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -392,9 +361,6 @@
     <t xml:space="preserve">VRE </t>
   </si>
   <si>
-    <t>8/24/18 17:01:57</t>
-  </si>
-  <si>
     <t>2: 2184</t>
   </si>
   <si>
@@ -404,7 +370,7 @@
     <t>G2576U</t>
   </si>
   <si>
-    <t>8/24/18 17:02:13</t>
+    <t>8/24/18 17:02:00</t>
   </si>
   <si>
     <t>623</t>
@@ -423,7 +389,7 @@
 like Genes in Patients with Diabetes Mellitu</t>
   </si>
   <si>
-    <t>8/24/18 17:12:13</t>
+    <t>8/24/18 17:12:00</t>
   </si>
   <si>
     <t>7482</t>
@@ -441,7 +407,7 @@
     <t xml:space="preserve">Osteomyelitis </t>
   </si>
   <si>
-    <t>8/24/18 17:13:51</t>
+    <t>8/24/18 17:13:00</t>
   </si>
   <si>
     <t>1: 37</t>
@@ -450,21 +416,6 @@
     <t>1: 44</t>
   </si>
   <si>
-    <t>8/24/18 17:13:58</t>
-  </si>
-  <si>
-    <t>1: 57</t>
-  </si>
-  <si>
-    <t>1: 76</t>
-  </si>
-  <si>
-    <t>Aeromonas hydrophila</t>
-  </si>
-  <si>
-    <t>8/24/18 17:14:06</t>
-  </si>
-  <si>
     <t>1: 1786</t>
   </si>
   <si>
@@ -474,7 +425,7 @@
     <t>blaTEM-1 gene</t>
   </si>
   <si>
-    <t>8/24/18 17:14:21</t>
+    <t>8/24/18 17:14:00</t>
   </si>
   <si>
     <t>1: 1844</t>
@@ -484,9 +435,6 @@
   </si>
   <si>
     <t>aminoglycosides</t>
-  </si>
-  <si>
-    <t>8/24/18 17:14:56</t>
   </si>
   <si>
     <t>1: 1880</t>
@@ -499,19 +447,7 @@
 cosides</t>
   </si>
   <si>
-    <t>8/24/18 17:15:04</t>
-  </si>
-  <si>
-    <t>1: 1903</t>
-  </si>
-  <si>
-    <t>1: 1915</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
-  </si>
-  <si>
-    <t>8/24/18 17:15:15</t>
+    <t>8/24/18 17:15:00</t>
   </si>
   <si>
     <t>1: 1936</t>
@@ -523,7 +459,7 @@
     <t>37-year-old</t>
   </si>
   <si>
-    <t>8/24/18 17:16:40</t>
+    <t>8/24/18 17:16:00</t>
   </si>
   <si>
     <t>1: 1948</t>
@@ -535,9 +471,6 @@
     <t>woman</t>
   </si>
   <si>
-    <t>8/24/18 17:16:47</t>
-  </si>
-  <si>
     <t>2: 3577</t>
   </si>
   <si>
@@ -547,7 +480,7 @@
     <t>Ampicillin</t>
   </si>
   <si>
-    <t>8/24/18 17:18:45</t>
+    <t>8/24/18 17:18:00</t>
   </si>
   <si>
     <t>2: 3653</t>
@@ -559,9 +492,6 @@
     <t>Cefazolin</t>
   </si>
   <si>
-    <t>8/24/18 17:18:54</t>
-  </si>
-  <si>
     <t>2: 3709</t>
   </si>
   <si>
@@ -571,7 +501,7 @@
     <t>Cefotaxime</t>
   </si>
   <si>
-    <t>8/24/18 17:19:58</t>
+    <t>8/24/18 17:19:00</t>
   </si>
   <si>
     <t>2: 3947</t>
@@ -583,7 +513,7 @@
     <t>Piperacillin</t>
   </si>
   <si>
-    <t>8/24/18 17:20:20</t>
+    <t>8/24/18 17:20:00</t>
   </si>
   <si>
     <t>2: 4019</t>
@@ -595,9 +525,6 @@
     <t>Ciprofloxacin</t>
   </si>
   <si>
-    <t>8/24/18 17:20:26</t>
-  </si>
-  <si>
     <t>2: 4049</t>
   </si>
   <si>
@@ -607,9 +534,6 @@
     <t>Gentamicin</t>
   </si>
   <si>
-    <t>8/24/18 17:20:31</t>
-  </si>
-  <si>
     <t>2: 4076</t>
   </si>
   <si>
@@ -619,13 +543,10 @@
     <t>Tobramycin</t>
   </si>
   <si>
-    <t>8/24/18 17:20:36</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>8/24/18 17:21:02</t>
+    <t>8/24/18 17:21:00</t>
   </si>
   <si>
     <t>2: 3588</t>
@@ -637,15 +558,9 @@
     <t xml:space="preserve">N16 </t>
   </si>
   <si>
-    <t>8/24/18 17:21:09</t>
-  </si>
-  <si>
     <t>MIC</t>
   </si>
   <si>
-    <t>8/24/18 17:21:25</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -658,19 +573,10 @@
     <t>N16</t>
   </si>
   <si>
-    <t>8/24/18 17:21:32</t>
-  </si>
-  <si>
-    <t>8/24/18 17:21:35</t>
-  </si>
-  <si>
-    <t>8/24/18 17:21:47</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>8/24/18 17:22:02</t>
+    <t>8/24/18 17:22:00</t>
   </si>
   <si>
     <t>2: 3720</t>
@@ -682,18 +588,9 @@
     <t>N64</t>
   </si>
   <si>
-    <t>8/24/18 17:22:09</t>
-  </si>
-  <si>
-    <t>8/24/18 17:22:12</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>8/24/18 17:22:55</t>
-  </si>
-  <si>
     <t>2: 3960</t>
   </si>
   <si>
@@ -703,15 +600,9 @@
     <t>8/24/18 17:23:00</t>
   </si>
   <si>
-    <t>8/24/18 17:23:03</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>8/24/18 17:23:24</t>
-  </si>
-  <si>
     <t>2: 4033</t>
   </si>
   <si>
@@ -721,18 +612,9 @@
     <t>N2</t>
   </si>
   <si>
-    <t>8/24/18 17:23:29</t>
-  </si>
-  <si>
-    <t>8/24/18 17:23:32</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>8/24/18 17:23:41</t>
-  </si>
-  <si>
     <t>2: 4060</t>
   </si>
   <si>
@@ -742,18 +624,9 @@
     <t>N8</t>
   </si>
   <si>
-    <t>8/24/18 17:23:45</t>
-  </si>
-  <si>
-    <t>8/24/18 17:23:49</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>8/24/18 17:23:55</t>
-  </si>
-  <si>
     <t>2: 4087</t>
   </si>
   <si>
@@ -763,9 +636,6 @@
     <t>8/24/18 17:24:00</t>
   </si>
   <si>
-    <t>8/24/18 17:24:03</t>
-  </si>
-  <si>
     <t>2: 148</t>
   </si>
   <si>
@@ -775,16 +645,10 @@
     <t>TEM-1</t>
   </si>
   <si>
-    <t>8/24/18 17:24:18</t>
-  </si>
-  <si>
     <t>2: 158</t>
   </si>
   <si>
     <t>2: 165</t>
-  </si>
-  <si>
-    <t>8/24/18 17:24:22</t>
   </si>
   <si>
     <t>1: 1659</t>
@@ -800,7 +664,7 @@
 cosides and ciprofloxacin, aac(6′)-Ib-cr.</t>
   </si>
   <si>
-    <t>8/24/18 17:25:15</t>
+    <t>8/24/18 17:25:00</t>
   </si>
   <si>
     <t>1: 2915</t>
@@ -812,9 +676,6 @@
     <t xml:space="preserve">March </t>
   </si>
   <si>
-    <t>8/24/18 17:25:44</t>
-  </si>
-  <si>
     <t>1: 2924</t>
   </si>
   <si>
@@ -824,9 +685,6 @@
     <t>2010</t>
   </si>
   <si>
-    <t>8/24/18 17:25:49</t>
-  </si>
-  <si>
     <t>10558</t>
   </si>
   <si>
@@ -839,7 +697,7 @@
     <t>MRSA-Associated Lemierre’s Syndrome in an Intravenous Drug User</t>
   </si>
   <si>
-    <t>8/24/18 17:40:09</t>
+    <t>8/24/18 17:40:00</t>
   </si>
   <si>
     <t>9885</t>
@@ -854,7 +712,7 @@
     <t>NDM-1</t>
   </si>
   <si>
-    <t>8/24/18 17:41:56</t>
+    <t>8/24/18 17:41:00</t>
   </si>
   <si>
     <t>1: 242</t>
@@ -866,7 +724,7 @@
     <t>Pseudomonas aeruginosa</t>
   </si>
   <si>
-    <t>8/24/18 17:42:06</t>
+    <t>8/24/18 17:42:00</t>
   </si>
   <si>
     <t>1: 289</t>
@@ -878,9 +736,6 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>8/24/18 17:42:18</t>
-  </si>
-  <si>
     <t>Location:State/Province/District</t>
   </si>
   <si>
@@ -893,9 +748,6 @@
     <t>Balkan region</t>
   </si>
   <si>
-    <t>8/24/18 17:42:56</t>
-  </si>
-  <si>
     <t>13399</t>
   </si>
   <si>
@@ -905,7 +757,7 @@
     <t>1: 36</t>
   </si>
   <si>
-    <t>8/24/18 17:52:28</t>
+    <t>8/24/18 17:52:00</t>
   </si>
   <si>
     <t>1: 55</t>
@@ -917,9 +769,6 @@
     <t>Staphylococcus haemolyticus</t>
   </si>
   <si>
-    <t>8/24/18 17:52:38</t>
-  </si>
-  <si>
     <t>Location:City</t>
   </si>
   <si>
@@ -932,9 +781,6 @@
     <t xml:space="preserve"> Delhi</t>
   </si>
   <si>
-    <t>8/24/18 17:52:44</t>
-  </si>
-  <si>
     <t>1: 635</t>
   </si>
   <si>
@@ -944,9 +790,6 @@
     <t>sepsis</t>
   </si>
   <si>
-    <t>8/24/18 17:52:53</t>
-  </si>
-  <si>
     <t>1: 1846</t>
   </si>
   <si>
@@ -956,7 +799,7 @@
     <t>55-year-old</t>
   </si>
   <si>
-    <t>8/24/18 17:53:28</t>
+    <t>8/24/18 17:53:00</t>
   </si>
   <si>
     <t>1: 1857</t>
@@ -966,9 +809,6 @@
   </si>
   <si>
     <t xml:space="preserve"> man</t>
-  </si>
-  <si>
-    <t>8/24/18 17:53:36</t>
   </si>
   <si>
     <t>1: 2101</t>
@@ -981,7 +821,7 @@
 tusions.</t>
   </si>
   <si>
-    <t>8/24/18 17:54:21</t>
+    <t>8/24/18 17:54:00</t>
   </si>
   <si>
     <t>1: 2303</t>
@@ -990,9 +830,6 @@
     <t>1: 2308</t>
   </si>
   <si>
-    <t>8/24/18 17:54:29</t>
-  </si>
-  <si>
     <t>1: 3032</t>
   </si>
   <si>
@@ -1002,7 +839,7 @@
     <t>penicillin,</t>
   </si>
   <si>
-    <t>8/24/18 17:55:17</t>
+    <t>8/24/18 17:55:00</t>
   </si>
   <si>
     <t>1: 3044</t>
@@ -1014,9 +851,6 @@
     <t>cefoxitin,</t>
   </si>
   <si>
-    <t>8/24/18 17:55:20</t>
-  </si>
-  <si>
     <t>1: 3055</t>
   </si>
   <si>
@@ -1026,9 +860,6 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>8/24/18 17:55:23</t>
-  </si>
-  <si>
     <t>1: 3067</t>
   </si>
   <si>
@@ -1036,9 +867,6 @@
   </si>
   <si>
     <t>erythromycin</t>
-  </si>
-  <si>
-    <t>8/24/18 17:55:27</t>
   </si>
   <si>
     <t>1: 3084</t>
@@ -1051,9 +879,6 @@
 mycin</t>
   </si>
   <si>
-    <t>8/24/18 17:55:31</t>
-  </si>
-  <si>
     <t>1: 1216</t>
   </si>
   <si>
@@ -1063,7 +888,7 @@
     <t>VMMC and Associated Safdarjung Hospital,</t>
   </si>
   <si>
-    <t>8/24/18 17:57:12</t>
+    <t>8/24/18 17:57:00</t>
   </si>
   <si>
     <t>1: 1276</t>
@@ -1075,9 +900,6 @@
     <t>ndia</t>
   </si>
   <si>
-    <t>8/24/18 17:57:24</t>
-  </si>
-  <si>
     <t>5451</t>
   </si>
   <si>
@@ -1090,7 +912,7 @@
     <t>Chryseobacterium indologenes</t>
   </si>
   <si>
-    <t>8/24/18 18:21:52</t>
+    <t>8/24/18 18:21:00</t>
   </si>
   <si>
     <t>1: 923</t>
@@ -1102,7 +924,7 @@
     <t>33-day-old</t>
   </si>
   <si>
-    <t>8/24/18 18:22:06</t>
+    <t>8/24/18 18:22:00</t>
   </si>
   <si>
     <t>1: 934</t>
@@ -1114,9 +936,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>8/24/18 18:22:10</t>
-  </si>
-  <si>
     <t>1: 962</t>
   </si>
   <si>
@@ -1126,9 +945,6 @@
     <t xml:space="preserve"> fever o</t>
   </si>
   <si>
-    <t>8/24/18 18:22:48</t>
-  </si>
-  <si>
     <t>1: 985</t>
   </si>
   <si>
@@ -1138,9 +954,6 @@
     <t>irritability</t>
   </si>
   <si>
-    <t>8/24/18 18:22:53</t>
-  </si>
-  <si>
     <t>1: 1018</t>
   </si>
   <si>
@@ -1150,9 +963,6 @@
     <t>greenish rhinorrhea</t>
   </si>
   <si>
-    <t>8/24/18 18:22:59</t>
-  </si>
-  <si>
     <t>1: 1418</t>
   </si>
   <si>
@@ -1162,7 +972,7 @@
     <t>Mild nasal congestion</t>
   </si>
   <si>
-    <t>8/24/18 18:23:07</t>
+    <t>8/24/18 18:23:00</t>
   </si>
   <si>
     <t>1: 2673</t>
@@ -1174,10 +984,7 @@
     <t xml:space="preserve"> ampicillin/sulbactam</t>
   </si>
   <si>
-    <t>8/24/18 18:23:40</t>
-  </si>
-  <si>
-    <t>8/24/18 18:27:40</t>
+    <t>8/24/18 18:27:00</t>
   </si>
   <si>
     <t>1: 2696</t>
@@ -1189,12 +996,6 @@
     <t>&gt;64 mg/ml</t>
   </si>
   <si>
-    <t>8/24/18 18:27:48</t>
-  </si>
-  <si>
-    <t>8/24/18 18:27:51</t>
-  </si>
-  <si>
     <t>1: 2708</t>
   </si>
   <si>
@@ -1204,10 +1005,7 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>8/24/18 18:27:56</t>
-  </si>
-  <si>
-    <t>8/24/18 18:28:10</t>
+    <t>8/24/18 18:28:00</t>
   </si>
   <si>
     <t>1: 2722</t>
@@ -1219,12 +1017,6 @@
     <t>&gt;48 mg/m</t>
   </si>
   <si>
-    <t>8/24/18 18:28:42</t>
-  </si>
-  <si>
-    <t>8/24/18 18:28:44</t>
-  </si>
-  <si>
     <t>1: 2733</t>
   </si>
   <si>
@@ -1234,12 +1026,6 @@
     <t xml:space="preserve"> gentamicin</t>
   </si>
   <si>
-    <t>8/24/18 18:28:49</t>
-  </si>
-  <si>
-    <t>8/24/18 18:28:58</t>
-  </si>
-  <si>
     <t>1: 2746</t>
   </si>
   <si>
@@ -1249,10 +1035,7 @@
     <t>&gt;16 mg/ml</t>
   </si>
   <si>
-    <t>8/24/18 18:29:19</t>
-  </si>
-  <si>
-    <t>8/24/18 18:29:22</t>
+    <t>8/24/18 18:29:00</t>
   </si>
   <si>
     <t>1: 2758</t>
@@ -1264,12 +1047,6 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>8/24/18 18:29:29</t>
-  </si>
-  <si>
-    <t>8/24/18 18:29:34</t>
-  </si>
-  <si>
     <t>1: 2768</t>
   </si>
   <si>
@@ -1279,12 +1056,6 @@
     <t>&gt;48 mg/ml</t>
   </si>
   <si>
-    <t>8/24/18 18:29:39</t>
-  </si>
-  <si>
-    <t>8/24/18 18:29:42</t>
-  </si>
-  <si>
     <t>1: 2781</t>
   </si>
   <si>
@@ -1294,12 +1065,6 @@
     <t>imipenem</t>
   </si>
   <si>
-    <t>8/24/18 18:29:47</t>
-  </si>
-  <si>
-    <t>8/24/18 18:29:50</t>
-  </si>
-  <si>
     <t>1: 2791</t>
   </si>
   <si>
@@ -1309,12 +1074,6 @@
     <t>&gt;12 mg/ml)</t>
   </si>
   <si>
-    <t>8/24/18 18:29:55</t>
-  </si>
-  <si>
-    <t>8/24/18 18:29:58</t>
-  </si>
-  <si>
     <t>1: 2807</t>
   </si>
   <si>
@@ -1324,10 +1083,7 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>8/24/18 18:30:14</t>
-  </si>
-  <si>
-    <t>8/24/18 18:30:21</t>
+    <t>8/24/18 18:30:00</t>
   </si>
   <si>
     <t>1: 2818</t>
@@ -1337,12 +1093,6 @@
   </si>
   <si>
     <t>&gt;256 mg/ml</t>
-  </si>
-  <si>
-    <t>8/24/18 18:30:26</t>
-  </si>
-  <si>
-    <t>8/24/18 18:30:30</t>
   </si>
   <si>
     <t>1: 3834</t>
@@ -1355,7 +1105,7 @@
 bacteremia in a previously healthy infant</t>
   </si>
   <si>
-    <t>8/24/18 18:31:07</t>
+    <t>8/24/18 18:31:00</t>
   </si>
   <si>
     <t>1: 236</t>
@@ -1367,9 +1117,6 @@
     <t>Children’s Hospital at Montefiore, Albert Einstein College of Medicine</t>
   </si>
   <si>
-    <t>8/24/18 18:31:19</t>
-  </si>
-  <si>
     <t>1: 374</t>
   </si>
   <si>
@@ -1379,9 +1126,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>8/24/18 18:31:24</t>
-  </si>
-  <si>
     <t>1: 351</t>
   </si>
   <si>
@@ -1391,9 +1135,6 @@
     <t>Bronx,</t>
   </si>
   <si>
-    <t>8/24/18 18:31:30</t>
-  </si>
-  <si>
     <t>1: 358</t>
   </si>
   <si>
@@ -1401,9 +1142,6 @@
   </si>
   <si>
     <t>New York</t>
-  </si>
-  <si>
-    <t>8/24/18 18:31:38</t>
   </si>
   <si>
     <t>3597</t>
@@ -1423,7 +1161,7 @@
 from four Chinese citie</t>
   </si>
   <si>
-    <t>8/24/18 18:52:55</t>
+    <t>8/24/18 18:52:00</t>
   </si>
   <si>
     <t>14906</t>
@@ -1439,7 +1177,7 @@
 report of this enzyme originating outside the United States.</t>
   </si>
   <si>
-    <t>8/24/18 19:06:32</t>
+    <t>8/24/18 19:06:00</t>
   </si>
   <si>
     <t>References for follow up</t>
@@ -1457,7 +1195,7 @@
 40:e84–e86.</t>
   </si>
   <si>
-    <t>8/24/18 19:25:19</t>
+    <t>8/24/18 19:25:00</t>
   </si>
   <si>
     <t>4: 3262</t>
@@ -1472,18 +1210,12 @@
 Agents Chemother. 43:1206–1210.</t>
   </si>
   <si>
-    <t>8/24/18 19:25:24</t>
-  </si>
-  <si>
     <t>1: 2137</t>
   </si>
   <si>
     <t>February</t>
   </si>
   <si>
-    <t>8/24/18 19:25:55</t>
-  </si>
-  <si>
     <t>1: 2139</t>
   </si>
   <si>
@@ -1493,16 +1225,13 @@
     <t>2005</t>
   </si>
   <si>
-    <t>8/24/18 19:25:59</t>
-  </si>
-  <si>
     <t>1: 2148</t>
   </si>
   <si>
     <t>1: 2155</t>
   </si>
   <si>
-    <t>8/24/18 19:26:06</t>
+    <t>8/24/18 19:26:00</t>
   </si>
   <si>
     <t>1: 291</t>
@@ -1514,7 +1243,7 @@
     <t>Escherichia coli</t>
   </si>
   <si>
-    <t>8/24/18 19:27:25</t>
+    <t>8/24/18 19:27:00</t>
   </si>
   <si>
     <t>1: 270</t>
@@ -1526,9 +1255,6 @@
     <t>Carbapenem</t>
   </si>
   <si>
-    <t>8/24/18 19:27:37</t>
-  </si>
-  <si>
     <t>1: 318</t>
   </si>
   <si>
@@ -1538,7 +1264,7 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>8/24/18 19:32:51</t>
+    <t>8/24/18 19:32:00</t>
   </si>
   <si>
     <t>1: 2190</t>
@@ -1550,7 +1276,7 @@
     <t>32 _x0003_g/ml</t>
   </si>
   <si>
-    <t>8/24/18 19:33:06</t>
+    <t>8/24/18 19:33:00</t>
   </si>
   <si>
     <t>1: 2242</t>
@@ -1562,18 +1288,12 @@
     <t>75-year-old</t>
   </si>
   <si>
-    <t>8/24/18 19:33:11</t>
-  </si>
-  <si>
     <t>1: 2254</t>
   </si>
   <si>
     <t>1: 2258</t>
   </si>
   <si>
-    <t>8/24/18 19:33:20</t>
-  </si>
-  <si>
     <t>1: 2309</t>
   </si>
   <si>
@@ -1581,9 +1301,6 @@
   </si>
   <si>
     <t>Tel Aviv Medical Center</t>
-  </si>
-  <si>
-    <t>8/24/18 19:33:27</t>
   </si>
   <si>
     <t>1: 2339</t>
@@ -1596,9 +1313,6 @@
 cope</t>
   </si>
   <si>
-    <t>8/24/18 19:33:34</t>
-  </si>
-  <si>
     <t>1: 248</t>
   </si>
   <si>
@@ -1608,7 +1322,7 @@
     <t>KPC-2</t>
   </si>
   <si>
-    <t>8/24/18 19:34:19</t>
+    <t>8/24/18 19:34:00</t>
   </si>
   <si>
     <t>19257</t>
@@ -1621,7 +1335,7 @@
 Colonization by IMP-4-Producing Enterobacteriaceae</t>
   </si>
   <si>
-    <t>8/24/18 19:44:19</t>
+    <t>8/24/18 19:44:00</t>
   </si>
   <si>
     <t>16682</t>
@@ -1633,7 +1347,7 @@
 pneumoniae</t>
   </si>
   <si>
-    <t>8/24/18 20:08:33</t>
+    <t>8/24/18 20:08:00</t>
   </si>
   <si>
     <t>19430</t>
@@ -1654,16 +1368,179 @@
 [3].</t>
   </si>
   <si>
-    <t>8/30/18 09:43:35</t>
-  </si>
-  <si>
-    <t>8/30/18 09:44:25</t>
+    <t>8/30/18 09:43:00</t>
+  </si>
+  <si>
+    <t>8/30/18 09:44:00</t>
+  </si>
+  <si>
+    <t>2: 2326</t>
+  </si>
+  <si>
+    <t>2: 2331</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/29/18 11:18:00</t>
+  </si>
+  <si>
+    <t>1: 3258</t>
+  </si>
+  <si>
+    <t>P. aeruginosa</t>
+  </si>
+  <si>
+    <t>10/30/18 14:30:00</t>
+  </si>
+  <si>
+    <t>1: 3273</t>
+  </si>
+  <si>
+    <t>1: 3294</t>
+  </si>
+  <si>
+    <t>NDM-1 producer 
+MMA533</t>
+  </si>
+  <si>
+    <t>1: 2622</t>
+  </si>
+  <si>
+    <t>1: 2626</t>
+  </si>
+  <si>
+    <t>MMA83</t>
+  </si>
+  <si>
+    <t>10/30/18 14:31:00</t>
+  </si>
+  <si>
+    <t>1: 2633</t>
+  </si>
+  <si>
+    <t>1: 2634</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10/30/18 14:32:00</t>
+  </si>
+  <si>
+    <t>1: 2653</t>
+  </si>
+  <si>
+    <t>1: 2657</t>
+  </si>
+  <si>
+    <t>1: 3031</t>
+  </si>
+  <si>
+    <t>1: 3036</t>
+  </si>
+  <si>
+    <t>MMA533</t>
+  </si>
+  <si>
+    <t>1: 3043</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>10/30/18 14:33:00</t>
+  </si>
+  <si>
+    <t>1: 3063</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>1: 3041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63-</t>
+  </si>
+  <si>
+    <t>2: 6198</t>
+  </si>
+  <si>
+    <t>2: 6206</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>2: 6212</t>
+  </si>
+  <si>
+    <t>2: 6214</t>
+  </si>
+  <si>
+    <t>_x0006_32</t>
+  </si>
+  <si>
+    <t>2: 6208</t>
+  </si>
+  <si>
+    <t>2: 6210</t>
+  </si>
+  <si>
+    <t>2: 6226</t>
+  </si>
+  <si>
+    <t>2: 6228</t>
+  </si>
+  <si>
+    <t>2: 6230</t>
+  </si>
+  <si>
+    <t>2: 6232</t>
+  </si>
+  <si>
+    <t>10/30/18 14:34:00</t>
+  </si>
+  <si>
+    <t>2: 6217</t>
+  </si>
+  <si>
+    <t>2: 6224</t>
+  </si>
+  <si>
+    <t>Imipenem</t>
+  </si>
+  <si>
+    <t>1: 57</t>
+  </si>
+  <si>
+    <t>1: 77</t>
+  </si>
+  <si>
+    <t>Aeromonas hydrophila:</t>
+  </si>
+  <si>
+    <t>11/8/18 13:48:00</t>
+  </si>
+  <si>
+    <t>1: 2006</t>
+  </si>
+  <si>
+    <t>1: 2009</t>
+  </si>
+  <si>
+    <t>11/12/18 11:59:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1813,10 +1690,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1839,7 +1719,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1851,7 +1731,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1868,9 +1748,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1898,14 +1778,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1933,6 +1830,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2084,8 +1998,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2173,7 +2087,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="4">
-        <v>0.11840992387933465</v>
+        <v>0.11841</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -2214,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="4">
-        <v>2.8192839018889203E-2</v>
+        <v>2.8192999999999999E-2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -2255,7 +2169,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="4">
-        <v>0.12404849168311249</v>
+        <v>0.12404800000000001</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
@@ -2296,13 +2210,13 @@
         <v>42</v>
       </c>
       <c r="K5" s="4">
-        <v>0.23681984775866929</v>
+        <v>0.23682</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2322,28 +2236,28 @@
         <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="J6" s="3">
         <v>23</v>
       </c>
       <c r="K6" s="4">
-        <v>0.12968705948689033</v>
+        <v>0.129687</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2360,31 +2274,31 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="J7" s="3">
         <v>9</v>
       </c>
       <c r="K7" s="4">
-        <v>5.074711023400056E-2</v>
+        <v>5.0747E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2401,34 +2315,34 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J8" s="3">
         <v>8</v>
       </c>
       <c r="K8" s="4">
-        <v>4.5108542430222727E-2</v>
+        <v>4.5109000000000003E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2442,34 +2356,34 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J9" s="3">
         <v>294</v>
       </c>
       <c r="K9" s="4">
-        <v>1.657738934310685</v>
+        <v>1.6577390000000001</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2483,34 +2397,34 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="J10" s="3">
         <v>278</v>
       </c>
       <c r="K10" s="4">
-        <v>1.5675218494502394</v>
+        <v>1.5675220000000001</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2524,34 +2438,34 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3">
         <v>127</v>
       </c>
       <c r="K11" s="4">
-        <v>0.71609811107978572</v>
+        <v>0.71609800000000001</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2565,10 +2479,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>24</v>
@@ -2577,19 +2491,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3">
         <v>131</v>
       </c>
       <c r="K12" s="4">
-        <v>0.73865238229489705</v>
+        <v>0.73865199999999998</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2603,34 +2517,34 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="J13" s="3">
         <v>9</v>
       </c>
       <c r="K13" s="4">
-        <v>9.1240875912408759E-2</v>
+        <v>9.1241000000000003E-2</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2644,34 +2558,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J14" s="3">
         <v>20</v>
       </c>
       <c r="K14" s="4">
-        <v>0.202757502027575</v>
+        <v>0.20275799999999999</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2685,34 +2599,34 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J15" s="3">
         <v>6</v>
       </c>
       <c r="K15" s="4">
-        <v>6.0827250608272508E-2</v>
+        <v>6.0826999999999999E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2726,34 +2640,34 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J16" s="3">
         <v>5</v>
       </c>
       <c r="K16" s="4">
-        <v>5.0689375506893751E-2</v>
+        <v>5.0688999999999998E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2767,34 +2681,34 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
       </c>
       <c r="K17" s="4">
-        <v>4.0551500405515008E-2</v>
+        <v>4.0551999999999998E-2</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2808,34 +2722,34 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J18" s="3">
         <v>11</v>
       </c>
       <c r="K18" s="4">
-        <v>0.11151662611516627</v>
+        <v>0.11151700000000001</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2849,34 +2763,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J19" s="3">
         <v>10</v>
       </c>
       <c r="K19" s="4">
-        <v>0.1013787510137875</v>
+        <v>0.101379</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2890,34 +2804,34 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J20" s="3">
         <v>5</v>
       </c>
       <c r="K20" s="4">
-        <v>5.0689375506893751E-2</v>
+        <v>5.0688999999999998E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2931,34 +2845,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>24</v>
       </c>
       <c r="K21" s="4">
-        <v>0.24330900243309003</v>
+        <v>0.243309</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2972,34 +2886,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J22" s="3">
         <v>10</v>
       </c>
       <c r="K22" s="4">
-        <v>0.1013787510137875</v>
+        <v>0.101379</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3013,34 +2927,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J23" s="3">
         <v>3</v>
       </c>
       <c r="K23" s="4">
-        <v>3.0413625304136254E-2</v>
+        <v>3.0414E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3054,37 +2968,37 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J24" s="3">
         <v>6</v>
       </c>
       <c r="K24" s="4">
-        <v>6.0827250608272508E-2</v>
+        <v>6.0826999999999999E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -3095,34 +3009,34 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J25" s="3">
         <v>120</v>
       </c>
       <c r="K25" s="4">
-        <v>10.619469026548673</v>
+        <v>10.619469</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3136,34 +3050,34 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J26" s="3">
         <v>13</v>
       </c>
       <c r="K26" s="4">
-        <v>0.13192612137203166</v>
+        <v>0.13192599999999999</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3177,34 +3091,34 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J27" s="3">
         <v>8</v>
       </c>
       <c r="K27" s="4">
-        <v>8.1185305459711796E-2</v>
+        <v>8.1184999999999993E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3218,34 +3132,34 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="J28" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K28" s="4">
-        <v>0.20296326364927947</v>
+        <v>0.13192599999999999</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3259,37 +3173,37 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J29" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K29" s="4">
-        <v>0.13192612137203166</v>
+        <v>0.152222</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3300,37 +3214,37 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J30" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K30" s="4">
-        <v>0.15222244773695962</v>
+        <v>0.182667</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3341,34 +3255,34 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J31" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K31" s="4">
-        <v>0.18266693728435154</v>
+        <v>0.11162999999999999</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3382,34 +3296,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J32" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K32" s="4">
-        <v>0.13192612137203166</v>
+        <v>5.0741000000000001E-2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3423,34 +3337,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J33" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K33" s="4">
-        <v>0.11162979500710371</v>
+        <v>0.101482</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3464,34 +3378,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J34" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K34" s="4">
-        <v>5.0740815912319867E-2</v>
+        <v>9.1332999999999998E-2</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3505,34 +3419,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J35" s="3">
         <v>10</v>
       </c>
       <c r="K35" s="4">
-        <v>0.10148163182463973</v>
+        <v>0.101482</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3546,34 +3460,34 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J36" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K36" s="4">
-        <v>9.1333468642175772E-2</v>
+        <v>0.121778</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3587,34 +3501,34 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="J37" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K37" s="4">
-        <v>0.10148163182463973</v>
+        <v>0.13192599999999999</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3628,34 +3542,34 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J38" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K38" s="4">
-        <v>0.12177795818956769</v>
+        <v>0.101482</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3669,34 +3583,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J39" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K39" s="4">
-        <v>0.13192612137203166</v>
+        <v>0.101482</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3710,34 +3624,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="J40" s="3">
         <v>10</v>
       </c>
       <c r="K40" s="4">
-        <v>0.10148163182463973</v>
+        <v>0.101482</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3751,34 +3665,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J41" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K41" s="4">
-        <v>0.10148163182463973</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3792,34 +3706,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J42" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K42" s="4">
-        <v>0.10148163182463973</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3833,34 +3747,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J43" s="3">
         <v>3</v>
       </c>
       <c r="K43" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3874,34 +3788,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J44" s="3">
         <v>3</v>
       </c>
       <c r="K44" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3915,34 +3829,34 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="J45" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K45" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>9.1332999999999998E-2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3956,34 +3870,34 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="J46" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K46" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>0.101482</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3997,34 +3911,34 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="J47" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K47" s="4">
-        <v>9.1333468642175772E-2</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4038,34 +3952,34 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J48" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K48" s="4">
-        <v>0.10148163182463973</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4079,34 +3993,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="J49" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K49" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>0.121778</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4120,34 +4034,34 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="J50" s="3">
         <v>3</v>
       </c>
       <c r="K50" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4161,34 +4075,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J51" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K51" s="4">
-        <v>0.12177795818956769</v>
+        <v>3.0443999999999999E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4202,34 +4116,34 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="J52" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K52" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>0.13192599999999999</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4243,34 +4157,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="J53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" s="4">
-        <v>3.0444489547391922E-2</v>
+        <v>2.0296000000000002E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4284,34 +4198,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J54" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K54" s="4">
-        <v>0.13192612137203166</v>
+        <v>2.0296000000000002E-2</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4325,34 +4239,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="J55" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K55" s="4">
-        <v>2.0296326364927949E-2</v>
+        <v>0.101482</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4366,34 +4280,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="J56" s="3">
         <v>2</v>
       </c>
       <c r="K56" s="4">
-        <v>2.0296326364927949E-2</v>
+        <v>2.0296000000000002E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4407,34 +4321,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2.0296000000000002E-2</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J57" s="3">
-        <v>10</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.10148163182463973</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4448,34 +4362,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="J58" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K58" s="4">
-        <v>2.0296326364927949E-2</v>
+        <v>0.101482</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4489,34 +4403,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="J59" s="3">
         <v>2</v>
       </c>
       <c r="K59" s="4">
-        <v>2.0296326364927949E-2</v>
+        <v>2.0296000000000002E-2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4530,34 +4444,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J60" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K60" s="4">
-        <v>0.10148163182463973</v>
+        <v>2.0296000000000002E-2</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4571,34 +4485,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="J61" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K61" s="4">
-        <v>2.0296326364927949E-2</v>
+        <v>5.0741000000000001E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4612,37 +4526,37 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="J62" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K62" s="4">
-        <v>2.0296326364927949E-2</v>
+        <v>8.1184999999999993E-2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -4653,34 +4567,34 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="J63" s="3">
-        <v>5</v>
+        <v>273</v>
       </c>
       <c r="K63" s="4">
-        <v>5.0740815912319867E-2</v>
+        <v>2.7704490000000002</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4694,37 +4608,37 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="J64" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K64" s="4">
-        <v>8.1185305459711796E-2</v>
+        <v>5.0741000000000001E-2</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4735,34 +4649,34 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="J65" s="3">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="K65" s="4">
-        <v>2.7704485488126647</v>
+        <v>4.0592999999999997E-2</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4776,34 +4690,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="J66" s="3">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="K66" s="4">
-        <v>5.0740815912319867E-2</v>
+        <v>1.619537</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4817,34 +4731,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="J67" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K67" s="4">
-        <v>4.0592652729855898E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4858,34 +4772,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="J68" s="3">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="K68" s="4">
-        <v>1.6195372750642671</v>
+        <v>0.168518</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4899,34 +4813,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="J69" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K69" s="4">
-        <v>3.8299502106472615E-2</v>
+        <v>4.5959E-2</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4940,34 +4854,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="J70" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K70" s="4">
-        <v>0.16851780926847951</v>
+        <v>9.9579000000000001E-2</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4981,34 +4895,34 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="J71" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K71" s="4">
-        <v>4.5959402527767139E-2</v>
+        <v>0.124361</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5022,34 +4936,34 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="J72" s="3">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K72" s="4">
-        <v>9.9578705476828788E-2</v>
+        <v>0.373083</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5063,34 +4977,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="J73" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K73" s="4">
-        <v>0.12436092303440652</v>
+        <v>6.9088999999999998E-2</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5104,34 +5018,34 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="J74" s="3">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K74" s="4">
-        <v>0.37308276910321958</v>
+        <v>8.2906999999999995E-2</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5145,34 +5059,34 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>292</v>
+        <v>85</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="J75" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K75" s="4">
-        <v>6.9089401685781399E-2</v>
+        <v>0.15199699999999999</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5186,37 +5100,37 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="J76" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K76" s="4">
-        <v>8.2907282022937692E-2</v>
+        <v>4.1453999999999998E-2</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5227,34 +5141,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="J77" s="3">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K77" s="4">
-        <v>0.15199668370871908</v>
+        <v>0.732348</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5268,37 +5182,37 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="J78" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K78" s="4">
-        <v>4.1453641011468846E-2</v>
+        <v>8.2906999999999995E-2</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -5309,34 +5223,34 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="J79" s="3">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K79" s="4">
-        <v>0.73234765786928291</v>
+        <v>0.15199699999999999</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5350,34 +5264,34 @@
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="J80" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K80" s="4">
-        <v>8.2907282022937692E-2</v>
+        <v>0.138179</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5391,34 +5305,34 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="J81" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K81" s="4">
-        <v>0.15199668370871908</v>
+        <v>0.138179</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5432,37 +5346,37 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="J82" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K82" s="4">
-        <v>0.1381788033715628</v>
+        <v>0.16581499999999999</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -5473,34 +5387,34 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="J83" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K83" s="4">
-        <v>0.1381788033715628</v>
+        <v>0.19345000000000001</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5514,75 +5428,75 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J84" s="3">
+        <v>40</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0.55271499999999996</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J84" s="3">
-        <v>12</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0.16581456404587538</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="J85" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K85" s="4">
-        <v>0.19345032472018792</v>
+        <v>5.5272000000000002E-2</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5596,34 +5510,34 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="J86" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K86" s="4">
-        <v>0.55271521348625119</v>
+        <v>0.29592099999999999</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5637,34 +5551,34 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J87" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K87" s="4">
-        <v>5.5271521348625119E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5678,34 +5592,34 @@
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="J88" s="3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K88" s="4">
-        <v>0.29592052420207143</v>
+        <v>6.3411999999999996E-2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5719,34 +5633,34 @@
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K89" s="4">
-        <v>0.1056859015007398</v>
+        <v>7.3980000000000004E-2</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5760,34 +5674,34 @@
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="J90" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K90" s="4">
-        <v>6.3411540900443875E-2</v>
+        <v>0.12682299999999999</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5801,34 +5715,34 @@
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="J91" s="3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K91" s="4">
-        <v>7.3980131050517858E-2</v>
+        <v>0.20080300000000001</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5842,34 +5756,34 @@
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="J92" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K92" s="4">
-        <v>0.12682308180088775</v>
+        <v>0.22194</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5883,34 +5797,34 @@
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="J93" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K93" s="4">
-        <v>0.20080321285140559</v>
+        <v>0.211372</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5924,34 +5838,34 @@
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="J94" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K94" s="4">
-        <v>0.22194039315155356</v>
+        <v>0.211372</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5965,34 +5879,34 @@
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="J95" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K95" s="4">
-        <v>0.21137180300147959</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6006,34 +5920,34 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="J96" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K96" s="4">
-        <v>0.21137180300147959</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6047,34 +5961,34 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="J97" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K97" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>0.116254</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6088,34 +6002,34 @@
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="J98" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K98" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>0.116254</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6129,34 +6043,34 @@
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="J99" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K99" s="4">
-        <v>0.11625449165081378</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6170,34 +6084,34 @@
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="J100" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K100" s="4">
-        <v>0.11625449165081378</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6211,34 +6125,34 @@
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="J101" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K101" s="4">
-        <v>8.4548721200591842E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6252,34 +6166,34 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="J102" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K102" s="4">
-        <v>8.4548721200591842E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6293,34 +6207,34 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="J103" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K103" s="4">
-        <v>0.1056859015007398</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6334,34 +6248,34 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="J104" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K104" s="4">
-        <v>0.1056859015007398</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6375,34 +6289,34 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="J105" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K105" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6416,34 +6330,34 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="J106" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K106" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6457,34 +6371,34 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="J107" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K107" s="4">
-        <v>8.4548721200591842E-2</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>406</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6498,34 +6412,34 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="J108" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K108" s="4">
-        <v>8.4548721200591842E-2</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6539,34 +6453,34 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="J109" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K109" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>411</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6580,34 +6494,34 @@
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="J110" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K110" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6621,34 +6535,34 @@
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="J111" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K111" s="4">
-        <v>8.4548721200591842E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6662,34 +6576,34 @@
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="J112" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K112" s="4">
-        <v>8.4548721200591842E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6703,34 +6617,34 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="J113" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K113" s="4">
-        <v>0.1056859015007398</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6744,34 +6658,34 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="J114" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K114" s="4">
-        <v>0.1056859015007398</v>
+        <v>9.5116999999999993E-2</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6785,34 +6699,34 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="J115" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K115" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>426</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6826,37 +6740,37 @@
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="J116" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K116" s="4">
-        <v>9.5117311350665826E-2</v>
+        <v>0.105686</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
@@ -6867,34 +6781,34 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="J117" s="3">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="K117" s="4">
-        <v>0.1056859015007398</v>
+        <v>1.2153879999999999</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>431</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6908,37 +6822,37 @@
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>430</v>
+        <v>357</v>
       </c>
       <c r="J118" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K118" s="4">
-        <v>0.1056859015007398</v>
+        <v>0.73980100000000004</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -6949,34 +6863,34 @@
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="J119" s="3">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="K119" s="4">
-        <v>1.2153878672585079</v>
+        <v>3.1705999999999998E-2</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6990,34 +6904,34 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>439</v>
+        <v>363</v>
       </c>
       <c r="J120" s="3">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="K120" s="4">
-        <v>0.73980131050517861</v>
+        <v>6.3411999999999996E-2</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7031,37 +6945,37 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="J121" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K121" s="4">
-        <v>3.1705770450221937E-2</v>
+        <v>8.4548999999999999E-2</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -7072,37 +6986,37 @@
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="J122" s="3">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="K122" s="4">
-        <v>6.3411540900443875E-2</v>
+        <v>2.7154759999999998</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -7113,160 +7027,160 @@
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>449</v>
+        <v>373</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
       <c r="J123" s="3">
+        <v>123</v>
+      </c>
+      <c r="K123" s="4">
+        <v>0.54318999999999995</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J124" s="3">
+        <v>235</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1.037803</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J125" s="3">
+        <v>248</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1.095213</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J126" s="3">
         <v>8</v>
       </c>
-      <c r="K123" s="4">
-        <v>8.4548721200591842E-2</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H124" s="3">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="J124" s="3">
-        <v>339</v>
-      </c>
-      <c r="K124" s="4">
-        <v>2.7154758090355653</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H125" s="3">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="J125" s="3">
-        <v>123</v>
-      </c>
-      <c r="K125" s="4">
-        <v>0.54319024907260205</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="56" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J126" s="3">
-        <v>235</v>
-      </c>
       <c r="K126" s="4">
-        <v>1.0378025083907438</v>
+        <v>3.5328999999999999E-2</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -7277,34 +7191,34 @@
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="J127" s="3">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="K127" s="4">
-        <v>1.0952128599187423</v>
+        <v>1.7665E-2</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7318,34 +7232,34 @@
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>473</v>
+        <v>340</v>
       </c>
       <c r="J128" s="3">
         <v>8</v>
       </c>
       <c r="K128" s="4">
-        <v>3.5329447094152977E-2</v>
+        <v>3.5328999999999999E-2</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7359,34 +7273,34 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>475</v>
+        <v>393</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="J129" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K129" s="4">
-        <v>1.7664723547076489E-2</v>
+        <v>7.0659E-2</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7400,34 +7314,34 @@
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>479</v>
+        <v>397</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>480</v>
+        <v>398</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J130" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K130" s="4">
-        <v>3.5329447094152977E-2</v>
+        <v>4.4162E-2</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7441,34 +7355,34 @@
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="J131" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K131" s="4">
-        <v>7.0658894188305954E-2</v>
+        <v>2.6497E-2</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>485</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7482,34 +7396,34 @@
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="J132" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K132" s="4">
-        <v>4.4161808867691221E-2</v>
+        <v>3.5328999999999999E-2</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>489</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7523,34 +7437,34 @@
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="J133" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K133" s="4">
-        <v>2.6497085320614733E-2</v>
+        <v>4.8578000000000003E-2</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7564,34 +7478,34 @@
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>496</v>
+        <v>144</v>
       </c>
       <c r="J134" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K134" s="4">
-        <v>3.5329447094152977E-2</v>
+        <v>2.2081E-2</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7605,37 +7519,37 @@
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>499</v>
+        <v>414</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="J135" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K135" s="4">
-        <v>4.8577989754460343E-2</v>
+        <v>0.101572</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
@@ -7646,34 +7560,34 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>502</v>
+        <v>416</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>503</v>
+        <v>417</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>164</v>
+        <v>418</v>
       </c>
       <c r="J136" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K136" s="4">
-        <v>2.2080904433845611E-2</v>
+        <v>4.4162E-2</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>504</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7687,280 +7601,1387 @@
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J137" s="3">
+        <v>5</v>
+      </c>
+      <c r="K137" s="4">
+        <v>2.2081E-2</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J138" s="3">
+        <v>113</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0.66611600000000004</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J139" s="3">
+        <v>54</v>
+      </c>
+      <c r="K139" s="4">
+        <v>0.49010700000000001</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J140" s="3">
+        <v>383</v>
+      </c>
+      <c r="K140" s="4">
+        <v>3.3917820000000001</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J141" s="3">
+        <v>383</v>
+      </c>
+      <c r="K141" s="4">
+        <v>3.3917820000000001</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J142" s="3">
+        <v>6</v>
+      </c>
+      <c r="K142" s="4">
+        <v>6.0826999999999999E-2</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J143" s="3">
+        <v>13</v>
+      </c>
+      <c r="K143" s="4">
+        <v>9.9579000000000001E-2</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J144" s="3">
+        <v>22</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0.168518</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J145" s="3">
+        <v>5</v>
+      </c>
+      <c r="K145" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J146" s="3">
+        <v>5</v>
+      </c>
+      <c r="K146" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J147" s="3">
+        <v>2</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1.532E-2</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J148" s="3">
+        <v>2</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.532E-2</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J149" s="3">
+        <v>5</v>
+      </c>
+      <c r="K149" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J150" s="3">
+        <v>5</v>
+      </c>
+      <c r="K150" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H137" s="3">
-        <v>0</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J137" s="3">
-        <v>23</v>
-      </c>
-      <c r="K137" s="4">
-        <v>0.1015721603956898</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J151" s="3">
+        <v>6</v>
+      </c>
+      <c r="K151" s="4">
+        <v>4.5959E-2</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H138" s="3">
-        <v>0</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J138" s="3">
-        <v>10</v>
-      </c>
-      <c r="K138" s="4">
-        <v>4.4161808867691221E-2</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H139" s="3">
-        <v>0</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="J139" s="3">
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J152" s="3">
+        <v>6</v>
+      </c>
+      <c r="K152" s="4">
+        <v>4.5959E-2</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J153" s="3">
+        <v>2</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1.532E-2</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J154" s="3">
         <v>5</v>
       </c>
-      <c r="K139" s="4">
-        <v>2.2080904433845611E-2</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H140" s="3">
-        <v>0</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="J140" s="3">
-        <v>113</v>
-      </c>
-      <c r="K140" s="4">
-        <v>0.66611648196180151</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="56" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H141" s="3">
-        <v>0</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="J141" s="3">
-        <v>54</v>
-      </c>
-      <c r="K141" s="4">
-        <v>0.49010709747685605</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="98" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="K154" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H142" s="3">
-        <v>0</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J142" s="3">
-        <v>383</v>
-      </c>
-      <c r="K142" s="4">
-        <v>3.3917817924194118</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="98" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H143" s="3">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J143" s="3">
-        <v>383</v>
-      </c>
-      <c r="K143" s="4">
-        <v>3.3917817924194118</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>529</v>
+      <c r="G155" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J155" s="3">
+        <v>5</v>
+      </c>
+      <c r="K155" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J156" s="3">
+        <v>3</v>
+      </c>
+      <c r="K156" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J157" s="3">
+        <v>9</v>
+      </c>
+      <c r="K157" s="4">
+        <v>6.8939E-2</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J158" s="3">
+        <v>3</v>
+      </c>
+      <c r="K158" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J159" s="3">
+        <v>9</v>
+      </c>
+      <c r="K159" s="4">
+        <v>6.8939E-2</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J160" s="3">
+        <v>3</v>
+      </c>
+      <c r="K160" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J161" s="3">
+        <v>3</v>
+      </c>
+      <c r="K161" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J162" s="3">
+        <v>3</v>
+      </c>
+      <c r="K162" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J163" s="3">
+        <v>3</v>
+      </c>
+      <c r="K163" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J164" s="3">
+        <v>3</v>
+      </c>
+      <c r="K164" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J165" s="3">
+        <v>3</v>
+      </c>
+      <c r="K165" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J166" s="3">
+        <v>8</v>
+      </c>
+      <c r="K166" s="4">
+        <v>6.1279E-2</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J167" s="3">
+        <v>3</v>
+      </c>
+      <c r="K167" s="4">
+        <v>2.298E-2</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J168" s="3">
+        <v>8</v>
+      </c>
+      <c r="K168" s="4">
+        <v>6.1279E-2</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J169" s="3">
+        <v>21</v>
+      </c>
+      <c r="K169" s="4">
+        <v>0.21311099999999999</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J170" s="3">
+        <v>4</v>
+      </c>
+      <c r="K170" s="4">
+        <v>3.0640000000000001E-2</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/kw_1_1.xlsx
+++ b/data/coded_segments/kw_1_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6306"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="484">
   <si>
     <t>Color</t>
   </si>
@@ -1501,6 +1501,21 @@
   </si>
   <si>
     <t>7/22/2019 16:10:00</t>
+  </si>
+  <si>
+    <t>2: 1540</t>
+  </si>
+  <si>
+    <t>2: 1544</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>dattaray</t>
+  </si>
+  <si>
+    <t>9/17/2019 11:49:41</t>
   </si>
 </sst>
 </file>
@@ -1515,19 +1530,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1934,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8468,6 +8480,47 @@
         <v>478</v>
       </c>
     </row>
+    <row r="160" spans="1:13" ht="15.6">
+      <c r="A160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J160" s="3">
+        <v>5</v>
+      </c>
+      <c r="K160" s="4">
+        <v>5.0740815912319867E-2</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
